--- a/results/LeNet9/LeNet9 results.xlsx
+++ b/results/LeNet9/LeNet9 results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyCourse(5 delayed 1)\erasure code\SUSTech-Coded-Computation\results\LeNet9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AEAE86-DD5A-4761-9ABF-116AE8B3B118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B8755E-9538-4038-A7AB-926379CE43A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -307,6 +307,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="O158" sqref="O158"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2217,164 +2220,244 @@
         <v>3</v>
       </c>
       <c r="D55" s="4">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E55" s="4"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.81020000000000003</v>
+      </c>
       <c r="F55" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="5">
         <v>0</v>
       </c>
-      <c r="H55" s="4"/>
+      <c r="H55" s="4">
+        <v>0.81020000000000003</v>
+      </c>
       <c r="I55" s="4">
         <f>D55-H55</f>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
+        <v>5.2300000000000013E-2</v>
+      </c>
+      <c r="J55" s="4">
+        <f>H55/D55</f>
+        <v>0.93936231884057975</v>
+      </c>
+      <c r="K55" s="4">
+        <f>H55/E55</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="4">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E56" s="4"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.81020000000000003</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="12">
         <v>1</v>
       </c>
-      <c r="H56" s="13"/>
+      <c r="H56" s="13">
+        <v>0.6986</v>
+      </c>
       <c r="I56" s="13">
         <f>D56-H56</f>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
+        <v>0.16390000000000005</v>
+      </c>
+      <c r="J56" s="13">
+        <f t="shared" ref="J56:J77" si="11">H56/D56</f>
+        <v>0.80997101449275355</v>
+      </c>
+      <c r="K56" s="13">
+        <f t="shared" ref="K56:K77" si="12">H56/E56</f>
+        <v>0.86225623302888177</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="4">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E57" s="4"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.81020000000000003</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="5">
         <v>2</v>
       </c>
-      <c r="H57" s="4"/>
+      <c r="H57" s="4">
+        <v>0.47649999999999998</v>
+      </c>
       <c r="I57" s="4">
         <f>D57-H57</f>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
+        <v>0.38600000000000007</v>
+      </c>
+      <c r="J57" s="4">
+        <f t="shared" si="11"/>
+        <v>0.552463768115942</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="12"/>
+        <v>0.58812638854603794</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="4">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E58" s="4"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.81020000000000003</v>
+      </c>
       <c r="F58" s="7"/>
       <c r="G58" s="5">
         <v>3</v>
       </c>
-      <c r="H58" s="4"/>
+      <c r="H58" s="4">
+        <v>0.1</v>
+      </c>
       <c r="I58" s="4">
         <f>D58-H58</f>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="11"/>
+        <v>0.11594202898550725</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="12"/>
+        <v>0.12342631449024932</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="4">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E59" s="4"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.73480000000000001</v>
+      </c>
       <c r="F59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="5">
         <v>0</v>
       </c>
-      <c r="H59" s="4"/>
+      <c r="H59" s="4">
+        <v>0.73480000000000001</v>
+      </c>
       <c r="I59" s="4">
         <f>D59-H59</f>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
+        <v>8.3999999999999631E-3</v>
+      </c>
+      <c r="J59" s="4">
+        <f t="shared" si="11"/>
+        <v>0.98869752421959101</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="4">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E60" s="4"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.73480000000000001</v>
+      </c>
       <c r="F60" s="6"/>
       <c r="G60" s="8">
         <v>1</v>
       </c>
-      <c r="H60" s="9"/>
+      <c r="H60" s="9">
+        <v>0.65</v>
+      </c>
       <c r="I60" s="9">
         <f>D60-H60</f>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
+        <v>9.319999999999995E-2</v>
+      </c>
+      <c r="J60" s="9">
+        <f t="shared" si="11"/>
+        <v>0.87459634015069976</v>
+      </c>
+      <c r="K60" s="9">
+        <f t="shared" si="12"/>
+        <v>0.88459444746869897</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="4">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E61" s="4"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.73480000000000001</v>
+      </c>
       <c r="F61" s="6"/>
       <c r="G61" s="5">
         <v>2</v>
       </c>
-      <c r="H61" s="4"/>
+      <c r="H61" s="4">
+        <v>0.45400000000000001</v>
+      </c>
       <c r="I61" s="4">
         <f>D61-H61</f>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
+        <v>0.28919999999999996</v>
+      </c>
+      <c r="J61" s="4">
+        <f t="shared" si="11"/>
+        <v>0.61087190527448876</v>
+      </c>
+      <c r="K61" s="4">
+        <f t="shared" si="12"/>
+        <v>0.61785519869352201</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="4">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E62" s="4"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.73480000000000001</v>
+      </c>
       <c r="F62" s="7"/>
       <c r="G62" s="5">
         <v>3</v>
       </c>
-      <c r="H62" s="4"/>
+      <c r="H62" s="4">
+        <v>0.1</v>
+      </c>
       <c r="I62" s="4">
         <f>D62-H62</f>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="J62" s="4">
+        <f t="shared" si="11"/>
+        <v>0.13455328310010767</v>
+      </c>
+      <c r="K62" s="4">
+        <f t="shared" si="12"/>
+        <v>0.13609145345672291</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -2422,284 +2505,424 @@
         <v>6</v>
       </c>
       <c r="D64" s="4">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E64" s="5"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0.85509999999999997</v>
+      </c>
       <c r="F64" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="5">
         <v>0</v>
       </c>
-      <c r="H64" s="4"/>
+      <c r="H64" s="4">
+        <v>0.85509999999999997</v>
+      </c>
       <c r="I64" s="4">
         <f>D64-H64</f>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
+        <v>7.4000000000000732E-3</v>
+      </c>
+      <c r="J64" s="4">
+        <f t="shared" si="11"/>
+        <v>0.99142028985507236</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="4">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E65" s="5"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0.85509999999999997</v>
+      </c>
       <c r="F65" s="10"/>
       <c r="G65" s="12">
         <v>1</v>
       </c>
-      <c r="H65" s="13"/>
+      <c r="H65" s="13">
+        <v>0.80079999999999996</v>
+      </c>
       <c r="I65" s="13">
-        <f t="shared" ref="I65:I77" si="11">D65-H65</f>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
+        <f t="shared" ref="I65:I77" si="13">D65-H65</f>
+        <v>6.1700000000000088E-2</v>
+      </c>
+      <c r="J65" s="13">
+        <f t="shared" si="11"/>
+        <v>0.92846376811594189</v>
+      </c>
+      <c r="K65" s="13">
+        <f t="shared" si="12"/>
+        <v>0.93649865512805519</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="4">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E66" s="5"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0.85509999999999997</v>
+      </c>
       <c r="F66" s="10"/>
       <c r="G66" s="12">
         <v>2</v>
       </c>
-      <c r="H66" s="13"/>
+      <c r="H66" s="13">
+        <v>0.73919999999999997</v>
+      </c>
       <c r="I66" s="13">
+        <f t="shared" si="13"/>
+        <v>0.12330000000000008</v>
+      </c>
+      <c r="J66" s="13">
         <f t="shared" si="11"/>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
+        <v>0.85704347826086946</v>
+      </c>
+      <c r="K66" s="13">
+        <f t="shared" si="12"/>
+        <v>0.86446029704128169</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="4">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E67" s="5"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0.85509999999999997</v>
+      </c>
       <c r="F67" s="10"/>
       <c r="G67" s="5">
         <v>3</v>
       </c>
-      <c r="H67" s="4"/>
+      <c r="H67" s="4">
+        <v>0.65359999999999996</v>
+      </c>
       <c r="I67" s="4">
+        <f t="shared" si="13"/>
+        <v>0.20890000000000009</v>
+      </c>
+      <c r="J67" s="4">
         <f t="shared" si="11"/>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+        <v>0.75779710144927526</v>
+      </c>
+      <c r="K67" s="4">
+        <f t="shared" si="12"/>
+        <v>0.76435504619342765</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="4">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E68" s="5"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0.85509999999999997</v>
+      </c>
       <c r="F68" s="10"/>
       <c r="G68" s="5">
         <v>4</v>
       </c>
-      <c r="H68" s="4"/>
+      <c r="H68" s="4">
+        <v>0.53879999999999995</v>
+      </c>
       <c r="I68" s="4">
+        <f t="shared" si="13"/>
+        <v>0.3237000000000001</v>
+      </c>
+      <c r="J68" s="4">
         <f t="shared" si="11"/>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+        <v>0.62469565217391299</v>
+      </c>
+      <c r="K68" s="4">
+        <f t="shared" si="12"/>
+        <v>0.63010174248625883</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="4">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E69" s="5"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0.85509999999999997</v>
+      </c>
       <c r="F69" s="10"/>
       <c r="G69" s="5">
         <v>5</v>
       </c>
-      <c r="H69" s="4"/>
+      <c r="H69" s="4">
+        <v>0.36430000000000001</v>
+      </c>
       <c r="I69" s="4">
+        <f t="shared" si="13"/>
+        <v>0.49820000000000003</v>
+      </c>
+      <c r="J69" s="4">
         <f t="shared" si="11"/>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
+        <v>0.42237681159420287</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" si="12"/>
+        <v>0.42603204303590225</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="4">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E70" s="5"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0.85509999999999997</v>
+      </c>
       <c r="F70" s="10"/>
       <c r="G70" s="5">
         <v>6</v>
       </c>
-      <c r="H70" s="4"/>
+      <c r="H70" s="4">
+        <v>0.1</v>
+      </c>
       <c r="I70" s="4">
+        <f t="shared" si="13"/>
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="J70" s="4">
         <f t="shared" si="11"/>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+        <v>0.11594202898550725</v>
+      </c>
+      <c r="K70" s="4">
+        <f t="shared" si="12"/>
+        <v>0.11694538650450241</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="4">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E71" s="5"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0.74390000000000001</v>
+      </c>
       <c r="F71" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G71" s="5">
         <v>0</v>
       </c>
-      <c r="H71" s="4"/>
+      <c r="H71" s="4">
+        <v>0.74390000000000001</v>
+      </c>
       <c r="I71" s="4">
+        <f t="shared" si="13"/>
+        <v>-7.0000000000003393E-4</v>
+      </c>
+      <c r="J71" s="4">
         <f t="shared" si="11"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+        <v>1.0009418729817008</v>
+      </c>
+      <c r="K71" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="4">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E72" s="5"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0.74390000000000001</v>
+      </c>
       <c r="F72" s="10"/>
       <c r="G72" s="8">
         <v>1</v>
       </c>
-      <c r="H72" s="9"/>
+      <c r="H72" s="9">
+        <v>0.71289999999999998</v>
+      </c>
       <c r="I72" s="9">
+        <f t="shared" si="13"/>
+        <v>3.0299999999999994E-2</v>
+      </c>
+      <c r="J72" s="9">
         <f t="shared" si="11"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
+        <v>0.95923035522066735</v>
+      </c>
+      <c r="K72" s="9">
+        <f t="shared" si="12"/>
+        <v>0.95832773222207279</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="4">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E73" s="5"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0.74390000000000001</v>
+      </c>
       <c r="F73" s="10"/>
       <c r="G73" s="8">
         <v>2</v>
       </c>
-      <c r="H73" s="9"/>
+      <c r="H73" s="9">
+        <v>0.66310000000000002</v>
+      </c>
       <c r="I73" s="9">
+        <f t="shared" si="13"/>
+        <v>8.0099999999999949E-2</v>
+      </c>
+      <c r="J73" s="9">
         <f t="shared" si="11"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
+        <v>0.89222282023681387</v>
+      </c>
+      <c r="K73" s="9">
+        <f t="shared" si="12"/>
+        <v>0.89138325043688671</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="4">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E74" s="5"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0.74390000000000001</v>
+      </c>
       <c r="F74" s="10"/>
       <c r="G74" s="5">
         <v>3</v>
       </c>
-      <c r="H74" s="4"/>
+      <c r="H74" s="14">
+        <v>0.60549999999999993</v>
+      </c>
       <c r="I74" s="4">
-        <f t="shared" si="11"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
+        <f>D74-H75</f>
+        <v>0.23680000000000001</v>
+      </c>
+      <c r="J74" s="4">
+        <f>H75/D74</f>
+        <v>0.68137782561894511</v>
+      </c>
+      <c r="K74" s="4">
+        <f>H75/E74</f>
+        <v>0.68073665815297746</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="4">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E75" s="5"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.74390000000000001</v>
+      </c>
       <c r="F75" s="10"/>
       <c r="G75" s="5">
         <v>4</v>
       </c>
-      <c r="H75" s="4"/>
+      <c r="H75" s="4">
+        <v>0.50639999999999996</v>
+      </c>
       <c r="I75" s="4">
-        <f t="shared" si="11"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
+        <f>D75-H76</f>
+        <v>0.40469999999999995</v>
+      </c>
+      <c r="J75" s="4">
+        <f>H76/D75</f>
+        <v>0.45546286329386443</v>
+      </c>
+      <c r="K75" s="4">
+        <f>H76/E75</f>
+        <v>0.45503427880091413</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="4">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E76" s="5"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.74390000000000001</v>
+      </c>
       <c r="F76" s="10"/>
       <c r="G76" s="5">
         <v>5</v>
       </c>
-      <c r="H76" s="4"/>
+      <c r="H76" s="4">
+        <v>0.33850000000000002</v>
+      </c>
       <c r="I76" s="4">
-        <f t="shared" si="11"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
+        <f>D76-H77</f>
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="J76" s="4">
+        <f>H77/D76</f>
+        <v>0.13455328310010767</v>
+      </c>
+      <c r="K76" s="4">
+        <f>H77/E76</f>
+        <v>0.13442667025137789</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="4">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E77" s="5"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.74390000000000001</v>
+      </c>
       <c r="F77" s="10"/>
       <c r="G77" s="5">
         <v>6</v>
       </c>
-      <c r="H77" s="4"/>
+      <c r="H77" s="4">
+        <v>0.1</v>
+      </c>
       <c r="I77" s="4">
+        <f t="shared" si="13"/>
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="J77" s="4">
         <f t="shared" si="11"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
+        <v>0.13455328310010767</v>
+      </c>
+      <c r="K77" s="4">
+        <f t="shared" si="12"/>
+        <v>0.13442667025137789</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
@@ -2806,7 +3029,7 @@
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="13">
-        <f t="shared" ref="I82:I88" si="12">D82-H82</f>
+        <f t="shared" ref="I82:I88" si="14">D82-H82</f>
         <v>0.99739999999999995</v>
       </c>
       <c r="J82" s="13"/>
@@ -2826,7 +3049,7 @@
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.99739999999999995</v>
       </c>
       <c r="J83" s="4"/>
@@ -2846,7 +3069,7 @@
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.99739999999999995</v>
       </c>
       <c r="J84" s="4"/>
@@ -2868,7 +3091,7 @@
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.99060000000000004</v>
       </c>
       <c r="J85" s="4"/>
@@ -2888,7 +3111,7 @@
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.99060000000000004</v>
       </c>
       <c r="J86" s="9"/>
@@ -2908,7 +3131,7 @@
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.99060000000000004</v>
       </c>
       <c r="J87" s="4"/>
@@ -2928,7 +3151,7 @@
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.99060000000000004</v>
       </c>
       <c r="J88" s="4"/>
@@ -3011,7 +3234,7 @@
       </c>
       <c r="H91" s="13"/>
       <c r="I91" s="13">
-        <f t="shared" ref="I91:I103" si="13">D91-H91</f>
+        <f t="shared" ref="I91:I103" si="15">D91-H91</f>
         <v>0.99739999999999995</v>
       </c>
       <c r="J91" s="12"/>
@@ -3031,7 +3254,7 @@
       </c>
       <c r="H92" s="13"/>
       <c r="I92" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.99739999999999995</v>
       </c>
       <c r="J92" s="12"/>
@@ -3051,7 +3274,7 @@
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.99739999999999995</v>
       </c>
       <c r="J93" s="5"/>
@@ -3071,7 +3294,7 @@
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.99739999999999995</v>
       </c>
       <c r="J94" s="5"/>
@@ -3091,7 +3314,7 @@
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.99739999999999995</v>
       </c>
       <c r="J95" s="5"/>
@@ -3111,7 +3334,7 @@
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.99739999999999995</v>
       </c>
       <c r="J96" s="5"/>
@@ -3133,7 +3356,7 @@
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.99060000000000004</v>
       </c>
       <c r="J97" s="5"/>
@@ -3153,7 +3376,7 @@
       </c>
       <c r="H98" s="9"/>
       <c r="I98" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.99060000000000004</v>
       </c>
       <c r="J98" s="8"/>
@@ -3173,7 +3396,7 @@
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.99060000000000004</v>
       </c>
       <c r="J99" s="8"/>
@@ -3193,7 +3416,7 @@
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.99060000000000004</v>
       </c>
       <c r="J100" s="5"/>
@@ -3213,7 +3436,7 @@
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.99060000000000004</v>
       </c>
       <c r="J101" s="5"/>
@@ -3233,7 +3456,7 @@
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.99060000000000004</v>
       </c>
       <c r="J102" s="5"/>
@@ -3253,7 +3476,7 @@
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.99060000000000004</v>
       </c>
       <c r="J103" s="5"/>
@@ -3351,7 +3574,7 @@
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="13">
-        <f t="shared" ref="I108:I114" si="14">D108-H108</f>
+        <f t="shared" ref="I108:I114" si="16">D108-H108</f>
         <v>0.98560000000000003</v>
       </c>
       <c r="J108" s="13"/>
@@ -3371,7 +3594,7 @@
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.98560000000000003</v>
       </c>
       <c r="J109" s="4"/>
@@ -3391,7 +3614,7 @@
       </c>
       <c r="H110" s="4"/>
       <c r="I110" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.98560000000000003</v>
       </c>
       <c r="J110" s="4"/>
@@ -3413,7 +3636,7 @@
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.96179999999999999</v>
       </c>
       <c r="J111" s="4"/>
@@ -3433,7 +3656,7 @@
       </c>
       <c r="H112" s="9"/>
       <c r="I112" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.96179999999999999</v>
       </c>
       <c r="J112" s="9"/>
@@ -3453,7 +3676,7 @@
       </c>
       <c r="H113" s="4"/>
       <c r="I113" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.96179999999999999</v>
       </c>
       <c r="J113" s="4"/>
@@ -3473,7 +3696,7 @@
       </c>
       <c r="H114" s="4"/>
       <c r="I114" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.96179999999999999</v>
       </c>
       <c r="J114" s="4"/>
@@ -3556,7 +3779,7 @@
       </c>
       <c r="H117" s="13"/>
       <c r="I117" s="13">
-        <f t="shared" ref="I117:I129" si="15">D117-H117</f>
+        <f t="shared" ref="I117:I129" si="17">D117-H117</f>
         <v>0.98560000000000003</v>
       </c>
       <c r="J117" s="12"/>
@@ -3576,7 +3799,7 @@
       </c>
       <c r="H118" s="13"/>
       <c r="I118" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.98560000000000003</v>
       </c>
       <c r="J118" s="12"/>
@@ -3596,7 +3819,7 @@
       </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.98560000000000003</v>
       </c>
       <c r="J119" s="5"/>
@@ -3616,7 +3839,7 @@
       </c>
       <c r="H120" s="4"/>
       <c r="I120" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.98560000000000003</v>
       </c>
       <c r="J120" s="5"/>
@@ -3636,7 +3859,7 @@
       </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.98560000000000003</v>
       </c>
       <c r="J121" s="5"/>
@@ -3656,7 +3879,7 @@
       </c>
       <c r="H122" s="4"/>
       <c r="I122" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.98560000000000003</v>
       </c>
       <c r="J122" s="5"/>
@@ -3678,7 +3901,7 @@
       </c>
       <c r="H123" s="4"/>
       <c r="I123" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.96179999999999999</v>
       </c>
       <c r="J123" s="5"/>
@@ -3698,7 +3921,7 @@
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.96179999999999999</v>
       </c>
       <c r="J124" s="8"/>
@@ -3718,7 +3941,7 @@
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.96179999999999999</v>
       </c>
       <c r="J125" s="8"/>
@@ -3738,7 +3961,7 @@
       </c>
       <c r="H126" s="4"/>
       <c r="I126" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.96179999999999999</v>
       </c>
       <c r="J126" s="5"/>
@@ -3758,7 +3981,7 @@
       </c>
       <c r="H127" s="4"/>
       <c r="I127" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.96179999999999999</v>
       </c>
       <c r="J127" s="5"/>
@@ -3778,7 +4001,7 @@
       </c>
       <c r="H128" s="4"/>
       <c r="I128" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.96179999999999999</v>
       </c>
       <c r="J128" s="5"/>
@@ -3798,7 +4021,7 @@
       </c>
       <c r="H129" s="4"/>
       <c r="I129" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.96179999999999999</v>
       </c>
       <c r="J129" s="5"/>
@@ -3896,7 +4119,7 @@
       </c>
       <c r="H134" s="13"/>
       <c r="I134" s="13">
-        <f t="shared" ref="I134:I140" si="16">D134-H134</f>
+        <f t="shared" ref="I134:I140" si="18">D134-H134</f>
         <v>0.99250000000000005</v>
       </c>
       <c r="J134" s="13"/>
@@ -3916,7 +4139,7 @@
       </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.99250000000000005</v>
       </c>
       <c r="J135" s="4"/>
@@ -3936,7 +4159,7 @@
       </c>
       <c r="H136" s="4"/>
       <c r="I136" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.99250000000000005</v>
       </c>
       <c r="J136" s="4"/>
@@ -3958,7 +4181,7 @@
       </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.96740000000000004</v>
       </c>
       <c r="J137" s="4"/>
@@ -3978,7 +4201,7 @@
       </c>
       <c r="H138" s="9"/>
       <c r="I138" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.96740000000000004</v>
       </c>
       <c r="J138" s="9"/>
@@ -3998,7 +4221,7 @@
       </c>
       <c r="H139" s="4"/>
       <c r="I139" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.96740000000000004</v>
       </c>
       <c r="J139" s="4"/>
@@ -4018,7 +4241,7 @@
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.96740000000000004</v>
       </c>
       <c r="J140" s="4"/>
@@ -4101,7 +4324,7 @@
       </c>
       <c r="H143" s="13"/>
       <c r="I143" s="13">
-        <f t="shared" ref="I143:I155" si="17">D143-H143</f>
+        <f t="shared" ref="I143:I155" si="19">D143-H143</f>
         <v>0.99250000000000005</v>
       </c>
       <c r="J143" s="12"/>
@@ -4121,7 +4344,7 @@
       </c>
       <c r="H144" s="13"/>
       <c r="I144" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.99250000000000005</v>
       </c>
       <c r="J144" s="12"/>
@@ -4141,7 +4364,7 @@
       </c>
       <c r="H145" s="4"/>
       <c r="I145" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.99250000000000005</v>
       </c>
       <c r="J145" s="5"/>
@@ -4161,7 +4384,7 @@
       </c>
       <c r="H146" s="4"/>
       <c r="I146" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.99250000000000005</v>
       </c>
       <c r="J146" s="5"/>
@@ -4181,7 +4404,7 @@
       </c>
       <c r="H147" s="4"/>
       <c r="I147" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.99250000000000005</v>
       </c>
       <c r="J147" s="5"/>
@@ -4201,7 +4424,7 @@
       </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.99250000000000005</v>
       </c>
       <c r="J148" s="5"/>
@@ -4223,7 +4446,7 @@
       </c>
       <c r="H149" s="4"/>
       <c r="I149" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.96740000000000004</v>
       </c>
       <c r="J149" s="5"/>
@@ -4243,7 +4466,7 @@
       </c>
       <c r="H150" s="9"/>
       <c r="I150" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.96740000000000004</v>
       </c>
       <c r="J150" s="8"/>
@@ -4263,7 +4486,7 @@
       </c>
       <c r="H151" s="9"/>
       <c r="I151" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.96740000000000004</v>
       </c>
       <c r="J151" s="8"/>
@@ -4283,7 +4506,7 @@
       </c>
       <c r="H152" s="4"/>
       <c r="I152" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.96740000000000004</v>
       </c>
       <c r="J152" s="5"/>
@@ -4303,7 +4526,7 @@
       </c>
       <c r="H153" s="4"/>
       <c r="I153" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.96740000000000004</v>
       </c>
       <c r="J153" s="5"/>
@@ -4323,7 +4546,7 @@
       </c>
       <c r="H154" s="4"/>
       <c r="I154" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.96740000000000004</v>
       </c>
       <c r="J154" s="5"/>
@@ -4343,7 +4566,7 @@
       </c>
       <c r="H155" s="4"/>
       <c r="I155" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.96740000000000004</v>
       </c>
       <c r="J155" s="5"/>
